--- a/Assets/StreamingAssets/Desk.xlsx
+++ b/Assets/StreamingAssets/Desk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E93054-ACEF-CE4A-909E-B6E3450226C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA8CAF7-A020-B243-8FCE-313E1AA17169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,14 +121,6 @@
     <t>DialogueVocal</t>
   </si>
   <si>
-    <t>Lee-Regular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lee-Thinking2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,35 +153,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>What is this…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Come outside the manor at the second quarter of the Xu hour.”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This must be the note the culprit sent to Lord Xu, asking to meet outside the manor at the second quarter of the Xu hour!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The handwriting looks awkward—whoever wrote it must have used their left hand.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Something about this note feels… off.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Anyway, let’s hold on to it for now.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The texture and style of the paper also differ from ordinary letter paper.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>End Investigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yao-Regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Determined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Thinking2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspicious</t>
+  </si>
+  <si>
+    <t>Evi-Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(“Come outside the manor at the second quarter of the Xu hour.”)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(The texture and style of the paper also differ from ordinary letter paper.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is this......?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This must be the note the culprit sent to the Lord, asking to meet outside the manor 7.30 PM.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The handwriting looks awkward——whoever wrote it must have used their left hand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Something about this note feels...... off.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +600,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -656,25 +667,22 @@
     </row>
     <row r="2" spans="1:16" ht="17">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2">
-        <v>500</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17">
@@ -682,44 +690,53 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="34">
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="51">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2">
+        <v>500</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="34">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -730,13 +747,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -746,39 +766,45 @@
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="17">
+    <row r="8" spans="1:16" ht="34">
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="2">
-        <v>500</v>
-      </c>
-      <c r="L8" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="17">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -786,18 +812,12 @@
     </row>
     <row r="10" spans="1:16" ht="17">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="2"/>
@@ -806,16 +826,10 @@
     </row>
     <row r="11" spans="1:16" ht="17">
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -823,16 +837,10 @@
     </row>
     <row r="12" spans="1:16" ht="17">
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -840,16 +848,10 @@
     </row>
     <row r="13" spans="1:16" ht="17">
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
